--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt3-Ryk.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt3-Ryk.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>Neutrophils</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Wnt3</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +528,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -543,16 +543,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.1729583333333333</v>
+        <v>0.2071343333333333</v>
       </c>
       <c r="H2">
-        <v>0.518875</v>
+        <v>0.6214029999999999</v>
       </c>
       <c r="I2">
-        <v>0.4642595111127018</v>
+        <v>0.4218324028717592</v>
       </c>
       <c r="J2">
-        <v>0.4642595111127018</v>
+        <v>0.4218324028717592</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.367777666666666</v>
+        <v>12.13731566666667</v>
       </c>
       <c r="N2">
-        <v>19.103333</v>
+        <v>36.411947</v>
       </c>
       <c r="O2">
-        <v>0.1035015452901983</v>
+        <v>0.2052045499593414</v>
       </c>
       <c r="P2">
-        <v>0.1035015452901983</v>
+        <v>0.2052045499593414</v>
       </c>
       <c r="Q2">
-        <v>1.101360212263889</v>
+        <v>2.514054789071222</v>
       </c>
       <c r="R2">
-        <v>9.912241910374998</v>
+        <v>22.626493101641</v>
       </c>
       <c r="S2">
-        <v>0.04805157681583663</v>
+        <v>0.08656192838956696</v>
       </c>
       <c r="T2">
-        <v>0.04805157681583663</v>
+        <v>0.08656192838956692</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,13 +590,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -605,16 +605,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.1729583333333333</v>
+        <v>0.2071343333333333</v>
       </c>
       <c r="H3">
-        <v>0.518875</v>
+        <v>0.6214029999999999</v>
       </c>
       <c r="I3">
-        <v>0.4642595111127018</v>
+        <v>0.4218324028717592</v>
       </c>
       <c r="J3">
-        <v>0.4642595111127018</v>
+        <v>0.4218324028717592</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>107.856542</v>
       </c>
       <c r="O3">
-        <v>0.584364977915486</v>
+        <v>0.6078404201038963</v>
       </c>
       <c r="P3">
-        <v>0.584364977915486</v>
+        <v>0.6078404201038962</v>
       </c>
       <c r="Q3">
-        <v>6.218229247805555</v>
+        <v>7.446930974269554</v>
       </c>
       <c r="R3">
-        <v>55.96406323024999</v>
+        <v>67.02237876842598</v>
       </c>
       <c r="S3">
-        <v>0.2712969989584283</v>
+        <v>0.2564067849750061</v>
       </c>
       <c r="T3">
-        <v>0.2712969989584283</v>
+        <v>0.2564067849750061</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
@@ -667,16 +667,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.1729583333333333</v>
+        <v>0.2071343333333333</v>
       </c>
       <c r="H4">
-        <v>0.518875</v>
+        <v>0.6214029999999999</v>
       </c>
       <c r="I4">
-        <v>0.4642595111127018</v>
+        <v>0.4218324028717592</v>
       </c>
       <c r="J4">
-        <v>0.4642595111127018</v>
+        <v>0.4218324028717592</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,28 +685,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.107036</v>
+        <v>0.101426</v>
       </c>
       <c r="N4">
-        <v>0.3211079999999999</v>
+        <v>0.304278</v>
       </c>
       <c r="O4">
-        <v>0.001739757884398759</v>
+        <v>0.001714800640914052</v>
       </c>
       <c r="P4">
-        <v>0.001739757884398759</v>
+        <v>0.001714800640914052</v>
       </c>
       <c r="Q4">
-        <v>0.01851276816666666</v>
+        <v>0.02100880689266666</v>
       </c>
       <c r="R4">
-        <v>0.1666149135</v>
+        <v>0.189079262034</v>
       </c>
       <c r="S4">
-        <v>0.0008076991448654362</v>
+        <v>0.0007233584748028073</v>
       </c>
       <c r="T4">
-        <v>0.0008076991448654361</v>
+        <v>0.0007233584748028071</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
@@ -729,16 +729,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.1729583333333333</v>
+        <v>0.2071343333333333</v>
       </c>
       <c r="H5">
-        <v>0.518875</v>
+        <v>0.6214029999999999</v>
       </c>
       <c r="I5">
-        <v>0.4642595111127018</v>
+        <v>0.4218324028717592</v>
       </c>
       <c r="J5">
-        <v>0.4642595111127018</v>
+        <v>0.4218324028717592</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>18.505362</v>
+        <v>10.82580366666667</v>
       </c>
       <c r="N5">
-        <v>55.516086</v>
+        <v>32.477411</v>
       </c>
       <c r="O5">
-        <v>0.3007852446200642</v>
+        <v>0.1830309296039447</v>
       </c>
       <c r="P5">
-        <v>0.3007852446200642</v>
+        <v>0.1830309296039447</v>
       </c>
       <c r="Q5">
-        <v>3.20065656925</v>
+        <v>2.242395625292555</v>
       </c>
       <c r="R5">
-        <v>28.80590912325</v>
+        <v>20.181560627633</v>
       </c>
       <c r="S5">
-        <v>0.1396424106172254</v>
+        <v>0.0772083768346838</v>
       </c>
       <c r="T5">
-        <v>0.1396424106172254</v>
+        <v>0.07720837683468379</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,78 +791,78 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.1729583333333333</v>
+        <v>0.2071343333333333</v>
       </c>
       <c r="H6">
-        <v>0.518875</v>
+        <v>0.6214029999999999</v>
       </c>
       <c r="I6">
-        <v>0.4642595111127018</v>
+        <v>0.4218324028717592</v>
       </c>
       <c r="J6">
-        <v>0.4642595111127018</v>
+        <v>0.4218324028717592</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.03953766666666667</v>
+        <v>0.1306743333333333</v>
       </c>
       <c r="N6">
-        <v>0.118613</v>
+        <v>0.392023</v>
       </c>
       <c r="O6">
-        <v>0.0006426432911736551</v>
+        <v>0.002209299691903619</v>
       </c>
       <c r="P6">
-        <v>0.0006426432911736551</v>
+        <v>0.002209299691903619</v>
       </c>
       <c r="Q6">
-        <v>0.006838368930555556</v>
+        <v>0.02706714091877778</v>
       </c>
       <c r="R6">
-        <v>0.061545320375</v>
+        <v>0.243604268269</v>
       </c>
       <c r="S6">
-        <v>0.0002983532601801388</v>
+        <v>0.000931954197699541</v>
       </c>
       <c r="T6">
-        <v>0.0002983532601801388</v>
+        <v>0.0009319541976995407</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.1729583333333333</v>
+        <v>0.01689933333333333</v>
       </c>
       <c r="H7">
-        <v>0.518875</v>
+        <v>0.050698</v>
       </c>
       <c r="I7">
-        <v>0.4642595111127018</v>
+        <v>0.0344157642637587</v>
       </c>
       <c r="J7">
-        <v>0.4642595111127018</v>
+        <v>0.0344157642637587</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.5516093333333333</v>
+        <v>12.13731566666667</v>
       </c>
       <c r="N7">
-        <v>1.654828</v>
+        <v>36.411947</v>
       </c>
       <c r="O7">
-        <v>0.008965830998679042</v>
+        <v>0.2052045499593414</v>
       </c>
       <c r="P7">
-        <v>0.008965830998679042</v>
+        <v>0.2052045499593414</v>
       </c>
       <c r="Q7">
-        <v>0.09540543094444442</v>
+        <v>0.2051125432228889</v>
       </c>
       <c r="R7">
-        <v>0.8586488784999999</v>
+        <v>1.846012889006</v>
       </c>
       <c r="S7">
-        <v>0.004162472316165839</v>
+        <v>0.00706227141725139</v>
       </c>
       <c r="T7">
-        <v>0.004162472316165839</v>
+        <v>0.007062271417251388</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,31 +900,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.046675</v>
+        <v>0.01689933333333333</v>
       </c>
       <c r="H8">
-        <v>0.140025</v>
+        <v>0.050698</v>
       </c>
       <c r="I8">
-        <v>0.1252863175977954</v>
+        <v>0.0344157642637587</v>
       </c>
       <c r="J8">
-        <v>0.1252863175977954</v>
+        <v>0.0344157642637587</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.367777666666666</v>
+        <v>35.95218066666666</v>
       </c>
       <c r="N8">
-        <v>19.103333</v>
+        <v>107.856542</v>
       </c>
       <c r="O8">
-        <v>0.1035015452901983</v>
+        <v>0.6078404201038963</v>
       </c>
       <c r="P8">
-        <v>0.1035015452901983</v>
+        <v>0.6078404201038962</v>
       </c>
       <c r="Q8">
-        <v>0.2972160225916666</v>
+        <v>0.6075678851462222</v>
       </c>
       <c r="R8">
-        <v>2.674944203325</v>
+        <v>5.468110966316</v>
       </c>
       <c r="S8">
-        <v>0.01296732747509039</v>
+        <v>0.02091929260827975</v>
       </c>
       <c r="T8">
-        <v>0.01296732747509039</v>
+        <v>0.02091929260827975</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.01689933333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.050698</v>
+      </c>
+      <c r="I9">
+        <v>0.0344157642637587</v>
+      </c>
+      <c r="J9">
+        <v>0.0344157642637587</v>
+      </c>
+      <c r="K9">
         <v>2</v>
       </c>
-      <c r="F9">
+      <c r="L9">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G9">
-        <v>0.046675</v>
-      </c>
-      <c r="H9">
-        <v>0.140025</v>
-      </c>
-      <c r="I9">
-        <v>0.1252863175977954</v>
-      </c>
-      <c r="J9">
-        <v>0.1252863175977954</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
       <c r="M9">
-        <v>35.95218066666666</v>
+        <v>0.101426</v>
       </c>
       <c r="N9">
-        <v>107.856542</v>
+        <v>0.304278</v>
       </c>
       <c r="O9">
-        <v>0.584364977915486</v>
+        <v>0.001714800640914052</v>
       </c>
       <c r="P9">
-        <v>0.584364977915486</v>
+        <v>0.001714800640914052</v>
       </c>
       <c r="Q9">
-        <v>1.678068032616667</v>
+        <v>0.001714031782666667</v>
       </c>
       <c r="R9">
-        <v>15.10261229355</v>
+        <v>0.015426286044</v>
       </c>
       <c r="S9">
-        <v>0.07321293621614826</v>
+        <v>5.901617461704036E-05</v>
       </c>
       <c r="T9">
-        <v>0.07321293621614826</v>
+        <v>5.901617461704034E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.046675</v>
+        <v>0.01689933333333333</v>
       </c>
       <c r="H10">
-        <v>0.140025</v>
+        <v>0.050698</v>
       </c>
       <c r="I10">
-        <v>0.1252863175977954</v>
+        <v>0.0344157642637587</v>
       </c>
       <c r="J10">
-        <v>0.1252863175977954</v>
+        <v>0.0344157642637587</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.107036</v>
+        <v>10.82580366666667</v>
       </c>
       <c r="N10">
-        <v>0.3211079999999999</v>
+        <v>32.477411</v>
       </c>
       <c r="O10">
-        <v>0.001739757884398759</v>
+        <v>0.1830309296039447</v>
       </c>
       <c r="P10">
-        <v>0.001739757884398759</v>
+        <v>0.1830309296039447</v>
       </c>
       <c r="Q10">
-        <v>0.004995905299999999</v>
+        <v>0.1829488647642222</v>
       </c>
       <c r="R10">
-        <v>0.0449631477</v>
+        <v>1.646539782878</v>
       </c>
       <c r="S10">
-        <v>0.0002179678588480515</v>
+        <v>0.006299149326225975</v>
       </c>
       <c r="T10">
-        <v>0.0002179678588480515</v>
+        <v>0.006299149326225975</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,31 +1086,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.046675</v>
+        <v>0.01689933333333333</v>
       </c>
       <c r="H11">
-        <v>0.140025</v>
+        <v>0.050698</v>
       </c>
       <c r="I11">
-        <v>0.1252863175977954</v>
+        <v>0.0344157642637587</v>
       </c>
       <c r="J11">
-        <v>0.1252863175977954</v>
+        <v>0.0344157642637587</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,122 +1119,122 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>18.505362</v>
+        <v>0.1306743333333333</v>
       </c>
       <c r="N11">
-        <v>55.516086</v>
+        <v>0.392023</v>
       </c>
       <c r="O11">
-        <v>0.3007852446200642</v>
+        <v>0.002209299691903619</v>
       </c>
       <c r="P11">
-        <v>0.3007852446200642</v>
+        <v>0.002209299691903619</v>
       </c>
       <c r="Q11">
-        <v>0.8637377713500001</v>
+        <v>0.002208309117111111</v>
       </c>
       <c r="R11">
-        <v>7.773639942150001</v>
+        <v>0.019874782054</v>
       </c>
       <c r="S11">
-        <v>0.03768427568619994</v>
+        <v>7.603473738454969E-05</v>
       </c>
       <c r="T11">
-        <v>0.03768427568619994</v>
+        <v>7.603473738454967E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.046675</v>
+        <v>0.1481273333333333</v>
       </c>
       <c r="H12">
-        <v>0.140025</v>
+        <v>0.444382</v>
       </c>
       <c r="I12">
-        <v>0.1252863175977954</v>
+        <v>0.3016636978787648</v>
       </c>
       <c r="J12">
-        <v>0.1252863175977954</v>
+        <v>0.3016636978787648</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.03953766666666667</v>
+        <v>12.13731566666667</v>
       </c>
       <c r="N12">
-        <v>0.118613</v>
+        <v>36.411947</v>
       </c>
       <c r="O12">
-        <v>0.0006426432911736551</v>
+        <v>0.2052045499593414</v>
       </c>
       <c r="P12">
-        <v>0.0006426432911736551</v>
+        <v>0.2052045499593414</v>
       </c>
       <c r="Q12">
-        <v>0.001845420591666667</v>
+        <v>1.797868203528222</v>
       </c>
       <c r="R12">
-        <v>0.016608785325</v>
+        <v>16.180813831754</v>
       </c>
       <c r="S12">
-        <v>8.051441148007504E-05</v>
+        <v>0.06190276336228268</v>
       </c>
       <c r="T12">
-        <v>8.051441148007504E-05</v>
+        <v>0.06190276336228266</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.046675</v>
+        <v>0.1481273333333333</v>
       </c>
       <c r="H13">
-        <v>0.140025</v>
+        <v>0.444382</v>
       </c>
       <c r="I13">
-        <v>0.1252863175977954</v>
+        <v>0.3016636978787648</v>
       </c>
       <c r="J13">
-        <v>0.1252863175977954</v>
+        <v>0.3016636978787648</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.5516093333333333</v>
+        <v>35.95218066666666</v>
       </c>
       <c r="N13">
-        <v>1.654828</v>
+        <v>107.856542</v>
       </c>
       <c r="O13">
-        <v>0.008965830998679042</v>
+        <v>0.6078404201038963</v>
       </c>
       <c r="P13">
-        <v>0.008965830998679042</v>
+        <v>0.6078404201038962</v>
       </c>
       <c r="Q13">
-        <v>0.02574636563333333</v>
+        <v>5.325500649671555</v>
       </c>
       <c r="R13">
-        <v>0.2317172907</v>
+        <v>47.929505847044</v>
       </c>
       <c r="S13">
-        <v>0.001123295950028661</v>
+        <v>0.1833633888487233</v>
       </c>
       <c r="T13">
-        <v>0.001123295950028661</v>
+        <v>0.1833633888487232</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,13 +1272,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1287,46 +1287,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.1529133333333333</v>
+        <v>0.1481273333333333</v>
       </c>
       <c r="H14">
-        <v>0.45874</v>
+        <v>0.444382</v>
       </c>
       <c r="I14">
-        <v>0.4104541712895028</v>
+        <v>0.3016636978787648</v>
       </c>
       <c r="J14">
-        <v>0.4104541712895029</v>
+        <v>0.3016636978787648</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>6.367777666666666</v>
+        <v>0.101426</v>
       </c>
       <c r="N14">
-        <v>19.103333</v>
+        <v>0.304278</v>
       </c>
       <c r="O14">
-        <v>0.1035015452901983</v>
+        <v>0.001714800640914052</v>
       </c>
       <c r="P14">
-        <v>0.1035015452901983</v>
+        <v>0.001714800640914052</v>
       </c>
       <c r="Q14">
-        <v>0.9737181089355553</v>
+        <v>0.01502396291066667</v>
       </c>
       <c r="R14">
-        <v>8.76346298042</v>
+        <v>0.135215666196</v>
       </c>
       <c r="S14">
-        <v>0.04248264099927129</v>
+        <v>0.0005172931024630089</v>
       </c>
       <c r="T14">
-        <v>0.0424826409992713</v>
+        <v>0.0005172931024630088</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,13 +1334,13 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1349,16 +1349,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.1529133333333333</v>
+        <v>0.1481273333333333</v>
       </c>
       <c r="H15">
-        <v>0.45874</v>
+        <v>0.444382</v>
       </c>
       <c r="I15">
-        <v>0.4104541712895028</v>
+        <v>0.3016636978787648</v>
       </c>
       <c r="J15">
-        <v>0.4104541712895029</v>
+        <v>0.3016636978787648</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>35.95218066666666</v>
+        <v>10.82580366666667</v>
       </c>
       <c r="N15">
-        <v>107.856542</v>
+        <v>32.477411</v>
       </c>
       <c r="O15">
-        <v>0.584364977915486</v>
+        <v>0.1830309296039447</v>
       </c>
       <c r="P15">
-        <v>0.584364977915486</v>
+        <v>0.1830309296039447</v>
       </c>
       <c r="Q15">
-        <v>5.497567786342221</v>
+        <v>1.603597428333556</v>
       </c>
       <c r="R15">
-        <v>49.47811007708</v>
+        <v>14.432376855002</v>
       </c>
       <c r="S15">
-        <v>0.2398550427409094</v>
+        <v>0.05521378705051385</v>
       </c>
       <c r="T15">
-        <v>0.2398550427409095</v>
+        <v>0.05521378705051384</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,13 +1396,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>20</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1411,78 +1411,78 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.1529133333333333</v>
+        <v>0.1481273333333333</v>
       </c>
       <c r="H16">
-        <v>0.45874</v>
+        <v>0.444382</v>
       </c>
       <c r="I16">
-        <v>0.4104541712895028</v>
+        <v>0.3016636978787648</v>
       </c>
       <c r="J16">
-        <v>0.4104541712895029</v>
+        <v>0.3016636978787648</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.107036</v>
+        <v>0.1306743333333333</v>
       </c>
       <c r="N16">
-        <v>0.3211079999999999</v>
+        <v>0.392023</v>
       </c>
       <c r="O16">
-        <v>0.001739757884398759</v>
+        <v>0.002209299691903619</v>
       </c>
       <c r="P16">
-        <v>0.001739757884398759</v>
+        <v>0.002209299691903619</v>
       </c>
       <c r="Q16">
-        <v>0.01636723154666666</v>
+        <v>0.01935644053177778</v>
       </c>
       <c r="R16">
-        <v>0.14730508392</v>
+        <v>0.174207964786</v>
       </c>
       <c r="S16">
-        <v>0.0007140908806852713</v>
+        <v>0.0006664655147820616</v>
       </c>
       <c r="T16">
-        <v>0.0007140908806852714</v>
+        <v>0.0006664655147820615</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.1529133333333333</v>
+        <v>0.1188736666666667</v>
       </c>
       <c r="H17">
-        <v>0.45874</v>
+        <v>0.356621</v>
       </c>
       <c r="I17">
-        <v>0.4104541712895028</v>
+        <v>0.2420881349857173</v>
       </c>
       <c r="J17">
-        <v>0.4104541712895029</v>
+        <v>0.2420881349857172</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,152 +1491,276 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>18.505362</v>
+        <v>12.13731566666667</v>
       </c>
       <c r="N17">
-        <v>55.516086</v>
+        <v>36.411947</v>
       </c>
       <c r="O17">
-        <v>0.3007852446200642</v>
+        <v>0.2052045499593414</v>
       </c>
       <c r="P17">
-        <v>0.3007852446200642</v>
+        <v>0.2052045499593414</v>
       </c>
       <c r="Q17">
-        <v>2.82971658796</v>
+        <v>1.442807216787444</v>
       </c>
       <c r="R17">
-        <v>25.46744929164</v>
+        <v>12.985264951087</v>
       </c>
       <c r="S17">
-        <v>0.1234585583166389</v>
+        <v>0.04967758679024041</v>
       </c>
       <c r="T17">
-        <v>0.1234585583166389</v>
+        <v>0.04967758679024039</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.1529133333333333</v>
+        <v>0.1188736666666667</v>
       </c>
       <c r="H18">
-        <v>0.45874</v>
+        <v>0.356621</v>
       </c>
       <c r="I18">
-        <v>0.4104541712895028</v>
+        <v>0.2420881349857173</v>
       </c>
       <c r="J18">
-        <v>0.4104541712895029</v>
+        <v>0.2420881349857172</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.03953766666666667</v>
+        <v>35.95218066666666</v>
       </c>
       <c r="N18">
-        <v>0.118613</v>
+        <v>107.856542</v>
       </c>
       <c r="O18">
-        <v>0.0006426432911736551</v>
+        <v>0.6078404201038963</v>
       </c>
       <c r="P18">
-        <v>0.0006426432911736551</v>
+        <v>0.6078404201038962</v>
       </c>
       <c r="Q18">
-        <v>0.006045836402222222</v>
+        <v>4.273767540509111</v>
       </c>
       <c r="R18">
-        <v>0.05441252762</v>
+        <v>38.463907864582</v>
       </c>
       <c r="S18">
-        <v>0.0002637756195134413</v>
+        <v>0.1471509536718871</v>
       </c>
       <c r="T18">
-        <v>0.0002637756195134413</v>
+        <v>0.1471509536718871</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.1188736666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.356621</v>
+      </c>
+      <c r="I19">
+        <v>0.2420881349857173</v>
+      </c>
+      <c r="J19">
+        <v>0.2420881349857172</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.101426</v>
+      </c>
+      <c r="N19">
+        <v>0.304278</v>
+      </c>
+      <c r="O19">
+        <v>0.001714800640914052</v>
+      </c>
+      <c r="P19">
+        <v>0.001714800640914052</v>
+      </c>
+      <c r="Q19">
+        <v>0.01205688051533333</v>
+      </c>
+      <c r="R19">
+        <v>0.108511924638</v>
+      </c>
+      <c r="S19">
+        <v>0.0004151328890311955</v>
+      </c>
+      <c r="T19">
+        <v>0.0004151328890311954</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G19">
-        <v>0.1529133333333333</v>
-      </c>
-      <c r="H19">
-        <v>0.45874</v>
-      </c>
-      <c r="I19">
-        <v>0.4104541712895028</v>
-      </c>
-      <c r="J19">
-        <v>0.4104541712895029</v>
-      </c>
-      <c r="K19">
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.1188736666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.356621</v>
+      </c>
+      <c r="I20">
+        <v>0.2420881349857173</v>
+      </c>
+      <c r="J20">
+        <v>0.2420881349857172</v>
+      </c>
+      <c r="K20">
         <v>3</v>
       </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>0.5516093333333333</v>
-      </c>
-      <c r="N19">
-        <v>1.654828</v>
-      </c>
-      <c r="O19">
-        <v>0.008965830998679042</v>
-      </c>
-      <c r="P19">
-        <v>0.008965830998679042</v>
-      </c>
-      <c r="Q19">
-        <v>0.08434842185777776</v>
-      </c>
-      <c r="R19">
-        <v>0.75913579672</v>
-      </c>
-      <c r="S19">
-        <v>0.003680062732484542</v>
-      </c>
-      <c r="T19">
-        <v>0.003680062732484542</v>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>10.82580366666667</v>
+      </c>
+      <c r="N20">
+        <v>32.477411</v>
+      </c>
+      <c r="O20">
+        <v>0.1830309296039447</v>
+      </c>
+      <c r="P20">
+        <v>0.1830309296039447</v>
+      </c>
+      <c r="Q20">
+        <v>1.286902976470111</v>
+      </c>
+      <c r="R20">
+        <v>11.582126788231</v>
+      </c>
+      <c r="S20">
+        <v>0.04430961639252108</v>
+      </c>
+      <c r="T20">
+        <v>0.04430961639252107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.1188736666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.356621</v>
+      </c>
+      <c r="I21">
+        <v>0.2420881349857173</v>
+      </c>
+      <c r="J21">
+        <v>0.2420881349857172</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.1306743333333333</v>
+      </c>
+      <c r="N21">
+        <v>0.392023</v>
+      </c>
+      <c r="O21">
+        <v>0.002209299691903619</v>
+      </c>
+      <c r="P21">
+        <v>0.002209299691903619</v>
+      </c>
+      <c r="Q21">
+        <v>0.01553373714255556</v>
+      </c>
+      <c r="R21">
+        <v>0.139803634283</v>
+      </c>
+      <c r="S21">
+        <v>0.0005348452420374669</v>
+      </c>
+      <c r="T21">
+        <v>0.0005348452420374667</v>
       </c>
     </row>
   </sheetData>
